--- a/source/_static/files/gps_questions/gps_questions.xlsx
+++ b/source/_static/files/gps_questions/gps_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\expri\Desktop\docs\source\_static\files\gps_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C8BB4C-D16C-48A3-9C33-187F979330B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C97831-7FC3-4BC1-A45D-15AE9BEC5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF5EA0E3-1C6F-407A-BA0F-098009B61764}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF5EA0E3-1C6F-407A-BA0F-098009B61764}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -52,36 +52,24 @@
     <t>point</t>
   </si>
   <si>
-    <t>Collect the GPS coordinates of the house</t>
-  </si>
-  <si>
     <t>geotrace</t>
   </si>
   <si>
     <t>road</t>
   </si>
   <si>
-    <t>Collect the GPS coordinates of the road</t>
-  </si>
-  <si>
     <t>geoshape</t>
   </si>
   <si>
     <t>garden</t>
   </si>
   <si>
-    <t>Collect the GPS coordinates of the boundaries of the garden </t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
     <t>track</t>
   </si>
   <si>
-    <t>Capture the GPS of the track</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
@@ -94,25 +82,37 @@
     <t>say_distance</t>
   </si>
   <si>
-    <t>The distance is ${distance} Meters</t>
-  </si>
-  <si>
     <t>boundary</t>
   </si>
   <si>
-    <t>Capture the GPS of the boundaries</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
     <t>area(${boundary})</t>
   </si>
   <si>
-    <t>say_area</t>
-  </si>
-  <si>
-    <t>The distance is ${area} Square Meters</t>
+    <t>Capture the location of the housing unit</t>
+  </si>
+  <si>
+    <t>Trace out the road’s route</t>
+  </si>
+  <si>
+    <t>Trace the boundary of the garden </t>
+  </si>
+  <si>
+    <t>Trace the route of the track</t>
+  </si>
+  <si>
+    <t>The distance is ${distance} meters</t>
+  </si>
+  <si>
+    <t>Trace the boundaries</t>
+  </si>
+  <si>
+    <t>The area is ${area} square meters</t>
+  </si>
+  <si>
+    <t>display_area</t>
   </si>
 </sst>
 </file>
@@ -467,18 +467,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +489,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -500,95 +500,95 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
